--- a/data/pca/factorExposure/factorExposure_2011-09-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02102287708464615</v>
+        <v>0.01706479232196224</v>
       </c>
       <c r="C2">
-        <v>0.01529141920077677</v>
+        <v>0.00770802469597395</v>
       </c>
       <c r="D2">
-        <v>-0.04325219938584915</v>
+        <v>-0.03054980338063765</v>
       </c>
       <c r="E2">
-        <v>-0.06905044880887042</v>
+        <v>0.03891838474796525</v>
       </c>
       <c r="F2">
-        <v>0.0002260152850560688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02939200321317539</v>
+      </c>
+      <c r="G2">
+        <v>-0.0064411425662941</v>
+      </c>
+      <c r="H2">
+        <v>-0.01799572293262979</v>
+      </c>
+      <c r="I2">
+        <v>0.01588833698230666</v>
+      </c>
+      <c r="J2">
+        <v>-0.04669255936259874</v>
+      </c>
+      <c r="K2">
+        <v>0.0576737292903276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.07760558150974621</v>
+        <v>0.09364155576710599</v>
       </c>
       <c r="C4">
-        <v>0.04508651783656978</v>
+        <v>0.04924363667246399</v>
       </c>
       <c r="D4">
-        <v>-0.04931633334165116</v>
+        <v>-0.03300350155567131</v>
       </c>
       <c r="E4">
-        <v>-0.01449329440547758</v>
+        <v>0.02012298511898968</v>
       </c>
       <c r="F4">
-        <v>0.02038465492579945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07493016336010644</v>
+      </c>
+      <c r="G4">
+        <v>-0.035063842744608</v>
+      </c>
+      <c r="H4">
+        <v>-0.01568681754486741</v>
+      </c>
+      <c r="I4">
+        <v>-0.0806499384751229</v>
+      </c>
+      <c r="J4">
+        <v>0.01470399532033986</v>
+      </c>
+      <c r="K4">
+        <v>-0.04404236190721988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1244593368369514</v>
+        <v>0.1322856003163849</v>
       </c>
       <c r="C6">
-        <v>0.005457539460968602</v>
+        <v>0.01397922055639957</v>
       </c>
       <c r="D6">
-        <v>-0.05157287528999399</v>
+        <v>-0.06113627030741304</v>
       </c>
       <c r="E6">
-        <v>-0.06700390026966663</v>
+        <v>0.0143477382865603</v>
       </c>
       <c r="F6">
-        <v>0.04543889529832276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.04277355722966634</v>
+      </c>
+      <c r="G6">
+        <v>-0.07877629947806671</v>
+      </c>
+      <c r="H6">
+        <v>0.1636142778244797</v>
+      </c>
+      <c r="I6">
+        <v>-0.1221134700741051</v>
+      </c>
+      <c r="J6">
+        <v>0.4427072223078806</v>
+      </c>
+      <c r="K6">
+        <v>0.0170936697785543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07226058865635088</v>
+        <v>0.07150111175085289</v>
       </c>
       <c r="C7">
-        <v>0.01523474071374215</v>
+        <v>0.05083466209310031</v>
       </c>
       <c r="D7">
-        <v>-0.05806897098845056</v>
+        <v>-0.04928168784985012</v>
       </c>
       <c r="E7">
-        <v>-0.05519644440466296</v>
+        <v>0.0256881766972222</v>
       </c>
       <c r="F7">
-        <v>-0.00924174886092864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03565805478755316</v>
+      </c>
+      <c r="G7">
+        <v>0.01494682929048539</v>
+      </c>
+      <c r="H7">
+        <v>-0.0004163535515799598</v>
+      </c>
+      <c r="I7">
+        <v>-0.02806997554500441</v>
+      </c>
+      <c r="J7">
+        <v>-0.0607067120779892</v>
+      </c>
+      <c r="K7">
+        <v>-0.07260572682590476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03623457990669905</v>
+        <v>0.04009165238699872</v>
       </c>
       <c r="C8">
-        <v>0.04503006437336592</v>
+        <v>0.01996394151025891</v>
       </c>
       <c r="D8">
-        <v>0.01268305516541081</v>
+        <v>0.006856606962809817</v>
       </c>
       <c r="E8">
-        <v>-0.06101338216245489</v>
+        <v>0.06664333010969291</v>
       </c>
       <c r="F8">
-        <v>0.04192839089468003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0381438485737654</v>
+      </c>
+      <c r="G8">
+        <v>-0.05582312506814653</v>
+      </c>
+      <c r="H8">
+        <v>0.008756853658332212</v>
+      </c>
+      <c r="I8">
+        <v>-0.1072073407801434</v>
+      </c>
+      <c r="J8">
+        <v>-0.009321405495457897</v>
+      </c>
+      <c r="K8">
+        <v>-0.03208429886602279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07802124573000978</v>
+        <v>0.08593958666986488</v>
       </c>
       <c r="C9">
-        <v>0.05754164390221993</v>
+        <v>0.05263406995506317</v>
       </c>
       <c r="D9">
-        <v>-0.04387093429446785</v>
+        <v>-0.03078832885014662</v>
       </c>
       <c r="E9">
-        <v>-0.01912877787111476</v>
+        <v>0.01441783013323569</v>
       </c>
       <c r="F9">
-        <v>0.01477336801069966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06041382188726784</v>
+      </c>
+      <c r="G9">
+        <v>-0.04322697667427116</v>
+      </c>
+      <c r="H9">
+        <v>-0.01717561234862715</v>
+      </c>
+      <c r="I9">
+        <v>-0.089223231738776</v>
+      </c>
+      <c r="J9">
+        <v>0.004334316176918106</v>
+      </c>
+      <c r="K9">
+        <v>-0.02197893969262781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01962837043251545</v>
+        <v>0.0725666703447226</v>
       </c>
       <c r="C10">
-        <v>-0.159866837456483</v>
+        <v>-0.1935458735235984</v>
       </c>
       <c r="D10">
-        <v>0.001906101189140886</v>
+        <v>-0.01204128871907467</v>
       </c>
       <c r="E10">
-        <v>-0.07569194567754715</v>
+        <v>0.04421577045136724</v>
       </c>
       <c r="F10">
-        <v>0.04248374913355665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03804564795918781</v>
+      </c>
+      <c r="G10">
+        <v>0.05179013893811234</v>
+      </c>
+      <c r="H10">
+        <v>0.02952776644549882</v>
+      </c>
+      <c r="I10">
+        <v>0.03624217865915268</v>
+      </c>
+      <c r="J10">
+        <v>-0.01087264775467521</v>
+      </c>
+      <c r="K10">
+        <v>0.01501740231215936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07212193656535285</v>
+        <v>0.07385305038418544</v>
       </c>
       <c r="C11">
-        <v>0.06417019179658827</v>
+        <v>0.06099956203635266</v>
       </c>
       <c r="D11">
-        <v>-0.03817065890081651</v>
+        <v>-0.03351119354708813</v>
       </c>
       <c r="E11">
-        <v>-0.03398553442124698</v>
+        <v>0.0177571640837564</v>
       </c>
       <c r="F11">
-        <v>-0.01104680982522159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02699586472029919</v>
+      </c>
+      <c r="G11">
+        <v>-0.06040274501623459</v>
+      </c>
+      <c r="H11">
+        <v>-0.02924551326152998</v>
+      </c>
+      <c r="I11">
+        <v>-0.05555845455292245</v>
+      </c>
+      <c r="J11">
+        <v>-0.07423813173158114</v>
+      </c>
+      <c r="K11">
+        <v>0.04646523657279898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0703163773976811</v>
+        <v>0.07281374150582696</v>
       </c>
       <c r="C12">
-        <v>0.04851888384819671</v>
+        <v>0.05078058537778392</v>
       </c>
       <c r="D12">
-        <v>-0.04414082116355473</v>
+        <v>-0.02436396943945411</v>
       </c>
       <c r="E12">
-        <v>-0.02774640368424926</v>
+        <v>0.01133325778426969</v>
       </c>
       <c r="F12">
-        <v>-0.001639935258271747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03917622431159681</v>
+      </c>
+      <c r="G12">
+        <v>-0.04614089337884168</v>
+      </c>
+      <c r="H12">
+        <v>-0.009032645273456923</v>
+      </c>
+      <c r="I12">
+        <v>-0.07562097053195577</v>
+      </c>
+      <c r="J12">
+        <v>-0.07675487630028047</v>
+      </c>
+      <c r="K12">
+        <v>0.02289403410125647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.07951531937071964</v>
+        <v>0.06821912018674163</v>
       </c>
       <c r="C13">
-        <v>0.02962813644297822</v>
+        <v>0.0363520872505983</v>
       </c>
       <c r="D13">
-        <v>-0.03064080698541971</v>
+        <v>0.01263079445778383</v>
       </c>
       <c r="E13">
-        <v>-0.02008686230940337</v>
+        <v>0.01760125627782121</v>
       </c>
       <c r="F13">
-        <v>0.01187722969163557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.04417468174968665</v>
+      </c>
+      <c r="G13">
+        <v>-0.01755092055065578</v>
+      </c>
+      <c r="H13">
+        <v>-0.01186382205973979</v>
+      </c>
+      <c r="I13">
+        <v>-0.07184875417254347</v>
+      </c>
+      <c r="J13">
+        <v>-0.05175918481126719</v>
+      </c>
+      <c r="K13">
+        <v>-0.110047870808095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03507298707454325</v>
+        <v>0.04472674903120777</v>
       </c>
       <c r="C14">
-        <v>-0.009190394921166184</v>
+        <v>0.007349878683796236</v>
       </c>
       <c r="D14">
-        <v>-0.03178712311974639</v>
+        <v>-0.03313972366895714</v>
       </c>
       <c r="E14">
-        <v>-0.01158729404511578</v>
+        <v>0.001683362516133092</v>
       </c>
       <c r="F14">
-        <v>0.01970850951352342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03277090365500515</v>
+      </c>
+      <c r="G14">
+        <v>-0.02625884922706508</v>
+      </c>
+      <c r="H14">
+        <v>-0.05079792499660166</v>
+      </c>
+      <c r="I14">
+        <v>-0.0583359513670806</v>
+      </c>
+      <c r="J14">
+        <v>0.01302626307655702</v>
+      </c>
+      <c r="K14">
+        <v>-0.03805006800750248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05735706491278367</v>
+        <v>0.04450685496949252</v>
       </c>
       <c r="C15">
-        <v>0.0186242205446734</v>
+        <v>0.01681735128820681</v>
       </c>
       <c r="D15">
-        <v>-0.01562837339403304</v>
+        <v>0.008161227606466719</v>
       </c>
       <c r="E15">
-        <v>-0.004256499208164044</v>
+        <v>-0.006006314821038443</v>
       </c>
       <c r="F15">
-        <v>0.03005924371603286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.0324056992264723</v>
+      </c>
+      <c r="G15">
+        <v>-0.009823704012208558</v>
+      </c>
+      <c r="H15">
+        <v>-0.007582224311015057</v>
+      </c>
+      <c r="I15">
+        <v>-0.03722418230522068</v>
+      </c>
+      <c r="J15">
+        <v>0.03014068937789943</v>
+      </c>
+      <c r="K15">
+        <v>-0.0715537465486817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06272423624607984</v>
+        <v>0.07429610098176574</v>
       </c>
       <c r="C16">
-        <v>0.06197725563306517</v>
+        <v>0.06059308034485485</v>
       </c>
       <c r="D16">
-        <v>-0.03980701231444725</v>
+        <v>-0.03031258270933014</v>
       </c>
       <c r="E16">
-        <v>-0.02413528337528846</v>
+        <v>0.01130880769489774</v>
       </c>
       <c r="F16">
-        <v>0.01130517675139328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04109192833382527</v>
+      </c>
+      <c r="G16">
+        <v>-0.03900888791936469</v>
+      </c>
+      <c r="H16">
+        <v>-0.02711195209465171</v>
+      </c>
+      <c r="I16">
+        <v>-0.05039588801740496</v>
+      </c>
+      <c r="J16">
+        <v>-0.05116029729142858</v>
+      </c>
+      <c r="K16">
+        <v>0.02810342250464202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06531193718265484</v>
+        <v>0.06032691426912457</v>
       </c>
       <c r="C20">
-        <v>0.04817896076683215</v>
+        <v>0.03454628527888136</v>
       </c>
       <c r="D20">
-        <v>-0.01804629230644968</v>
+        <v>-0.01941758990722262</v>
       </c>
       <c r="E20">
-        <v>-0.02837896527927285</v>
+        <v>0.01539189740773444</v>
       </c>
       <c r="F20">
-        <v>0.008353919961151094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.009822557279394271</v>
+      </c>
+      <c r="G20">
+        <v>-0.03739672336286086</v>
+      </c>
+      <c r="H20">
+        <v>-0.03643255086110717</v>
+      </c>
+      <c r="I20">
+        <v>-0.1157322428477896</v>
+      </c>
+      <c r="J20">
+        <v>-0.03959797981031486</v>
+      </c>
+      <c r="K20">
+        <v>-0.0391115490367936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03788353645645746</v>
+        <v>0.02995386760461234</v>
       </c>
       <c r="C21">
-        <v>0.02163327935065861</v>
+        <v>0.02390201098839428</v>
       </c>
       <c r="D21">
-        <v>0.02687093436603344</v>
+        <v>0.02958228425546555</v>
       </c>
       <c r="E21">
-        <v>-0.01322173590704618</v>
+        <v>0.008068224169816928</v>
       </c>
       <c r="F21">
-        <v>0.04775999835307182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0100673655842436</v>
+      </c>
+      <c r="G21">
+        <v>-0.009531014435464743</v>
+      </c>
+      <c r="H21">
+        <v>0.05107306795779839</v>
+      </c>
+      <c r="I21">
+        <v>-0.07305836042829536</v>
+      </c>
+      <c r="J21">
+        <v>0.0417821494730052</v>
+      </c>
+      <c r="K21">
+        <v>-0.06177393235363017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1199695216745746</v>
+        <v>0.09384956252908626</v>
       </c>
       <c r="C22">
-        <v>0.1185352065193278</v>
+        <v>0.0814453012232917</v>
       </c>
       <c r="D22">
-        <v>0.02150549588843926</v>
+        <v>0.3582891355528958</v>
       </c>
       <c r="E22">
-        <v>0.0077661099983949</v>
+        <v>0.06406848395061955</v>
       </c>
       <c r="F22">
-        <v>0.3570772546321778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.4356086508982322</v>
+      </c>
+      <c r="G22">
+        <v>0.2859066587893972</v>
+      </c>
+      <c r="H22">
+        <v>0.06568684382877572</v>
+      </c>
+      <c r="I22">
+        <v>0.2036508544016473</v>
+      </c>
+      <c r="J22">
+        <v>0.04497599026915727</v>
+      </c>
+      <c r="K22">
+        <v>0.03257297480743143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1209822315133673</v>
+        <v>0.09480530881042593</v>
       </c>
       <c r="C23">
-        <v>0.1178045422108463</v>
+        <v>0.08174221673928182</v>
       </c>
       <c r="D23">
-        <v>0.01956854737209094</v>
+        <v>0.3582371620857714</v>
       </c>
       <c r="E23">
-        <v>0.006891863532446419</v>
+        <v>0.0647538125566</v>
       </c>
       <c r="F23">
-        <v>0.3596701211545513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.440323755503372</v>
+      </c>
+      <c r="G23">
+        <v>0.2811521564907615</v>
+      </c>
+      <c r="H23">
+        <v>0.06402739583507305</v>
+      </c>
+      <c r="I23">
+        <v>0.2038655544714678</v>
+      </c>
+      <c r="J23">
+        <v>0.0507436662612112</v>
+      </c>
+      <c r="K23">
+        <v>0.03376428875798287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08312022967347892</v>
+        <v>0.08326407447431831</v>
       </c>
       <c r="C24">
-        <v>0.05846678023215932</v>
+        <v>0.05804565102072965</v>
       </c>
       <c r="D24">
-        <v>-0.03218460265307199</v>
+        <v>-0.02029624728941273</v>
       </c>
       <c r="E24">
-        <v>-0.03962614439938063</v>
+        <v>0.02295095647715878</v>
       </c>
       <c r="F24">
-        <v>0.01821577754944488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04322340197855606</v>
+      </c>
+      <c r="G24">
+        <v>-0.05741359798339374</v>
+      </c>
+      <c r="H24">
+        <v>-0.01115721928692689</v>
+      </c>
+      <c r="I24">
+        <v>-0.06617152488830023</v>
+      </c>
+      <c r="J24">
+        <v>-0.0487475430480585</v>
+      </c>
+      <c r="K24">
+        <v>0.03764196893194361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07936774893266775</v>
+        <v>0.07776605078975689</v>
       </c>
       <c r="C25">
-        <v>0.04963801359950108</v>
+        <v>0.04552964041731915</v>
       </c>
       <c r="D25">
-        <v>-0.05060251503694162</v>
+        <v>-0.03342796842844639</v>
       </c>
       <c r="E25">
-        <v>-0.04753294181406782</v>
+        <v>0.01618556367049715</v>
       </c>
       <c r="F25">
-        <v>0.02870115573517005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.05194569696715112</v>
+      </c>
+      <c r="G25">
+        <v>-0.04858845700555089</v>
+      </c>
+      <c r="H25">
+        <v>-0.02284522649838574</v>
+      </c>
+      <c r="I25">
+        <v>-0.0781391012196561</v>
+      </c>
+      <c r="J25">
+        <v>-0.05815224932667466</v>
+      </c>
+      <c r="K25">
+        <v>0.04850719149889135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05281002456470108</v>
+        <v>0.04666114782087526</v>
       </c>
       <c r="C26">
-        <v>0.01494490030137897</v>
+        <v>0.02458101028558468</v>
       </c>
       <c r="D26">
-        <v>-0.004546882839887088</v>
+        <v>0.01171944871881918</v>
       </c>
       <c r="E26">
-        <v>-0.03411058852010323</v>
+        <v>0.007814490022790343</v>
       </c>
       <c r="F26">
-        <v>-0.01898813771702738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01843774737738886</v>
+      </c>
+      <c r="G26">
+        <v>-0.020241359248717</v>
+      </c>
+      <c r="H26">
+        <v>-0.02567737453449201</v>
+      </c>
+      <c r="I26">
+        <v>-0.03576633235302018</v>
+      </c>
+      <c r="J26">
+        <v>0.01084156089425588</v>
+      </c>
+      <c r="K26">
+        <v>-0.1208501339346985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.0511627183559742</v>
+        <v>0.09067684994459929</v>
       </c>
       <c r="C28">
-        <v>-0.2966530554051191</v>
+        <v>-0.2956273488871182</v>
       </c>
       <c r="D28">
-        <v>0.003758147862866852</v>
+        <v>0.009901704125346406</v>
       </c>
       <c r="E28">
-        <v>-0.07993655268419921</v>
+        <v>0.02681139171718509</v>
       </c>
       <c r="F28">
-        <v>0.001929098146584265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01490515537099165</v>
+      </c>
+      <c r="G28">
+        <v>-0.01206557342359727</v>
+      </c>
+      <c r="H28">
+        <v>0.04154421398339842</v>
+      </c>
+      <c r="I28">
+        <v>0.01974759858472513</v>
+      </c>
+      <c r="J28">
+        <v>0.01017538618850674</v>
+      </c>
+      <c r="K28">
+        <v>-0.05867630521194159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05689039889702248</v>
+        <v>0.05424431357209402</v>
       </c>
       <c r="C29">
-        <v>-0.002527272976953443</v>
+        <v>0.00992141895277728</v>
       </c>
       <c r="D29">
-        <v>-0.02970378540312518</v>
+        <v>-0.0207681570450386</v>
       </c>
       <c r="E29">
-        <v>-0.02414267876642847</v>
+        <v>0.01871718145136059</v>
       </c>
       <c r="F29">
-        <v>0.03403109718813258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0362318726756439</v>
+      </c>
+      <c r="G29">
+        <v>-0.02407905971590001</v>
+      </c>
+      <c r="H29">
+        <v>-0.06314131422297924</v>
+      </c>
+      <c r="I29">
+        <v>-0.03944689423321418</v>
+      </c>
+      <c r="J29">
+        <v>0.006211533946294621</v>
+      </c>
+      <c r="K29">
+        <v>-0.0358296813868073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1507374458006686</v>
+        <v>0.1302972358952216</v>
       </c>
       <c r="C30">
-        <v>0.06678011116642506</v>
+        <v>0.0559096801863251</v>
       </c>
       <c r="D30">
-        <v>-0.07290441665536911</v>
+        <v>-0.01602130288947297</v>
       </c>
       <c r="E30">
-        <v>-0.05286448419127251</v>
+        <v>0.03214509550227568</v>
       </c>
       <c r="F30">
-        <v>0.04004113621179724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1176995368466418</v>
+      </c>
+      <c r="G30">
+        <v>-0.07694217625815218</v>
+      </c>
+      <c r="H30">
+        <v>0.06909898360796038</v>
+      </c>
+      <c r="I30">
+        <v>-0.2409234201930698</v>
+      </c>
+      <c r="J30">
+        <v>-0.1694031179898814</v>
+      </c>
+      <c r="K30">
+        <v>-0.2564319346217867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.06067731610865182</v>
+        <v>0.04805082201256035</v>
       </c>
       <c r="C31">
-        <v>0.01991268740472844</v>
+        <v>0.03975942044078559</v>
       </c>
       <c r="D31">
-        <v>-0.02905006595259901</v>
+        <v>-0.00159662709399138</v>
       </c>
       <c r="E31">
-        <v>-0.00061880937453106</v>
+        <v>-0.00854924825565454</v>
       </c>
       <c r="F31">
-        <v>-0.009231595419399984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01973621957908941</v>
+      </c>
+      <c r="G31">
+        <v>0.005367067608151608</v>
+      </c>
+      <c r="H31">
+        <v>-0.06024622334073294</v>
+      </c>
+      <c r="I31">
+        <v>-0.04091731442375168</v>
+      </c>
+      <c r="J31">
+        <v>0.008922622907086763</v>
+      </c>
+      <c r="K31">
+        <v>-0.01890464339045607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04522545126946279</v>
+        <v>0.05033074818604072</v>
       </c>
       <c r="C32">
-        <v>0.005020985117379057</v>
+        <v>-0.007194005079584309</v>
       </c>
       <c r="D32">
-        <v>-0.008792640129811829</v>
+        <v>0.02875439202160818</v>
       </c>
       <c r="E32">
-        <v>0.003148833195207932</v>
+        <v>-0.003459152634547876</v>
       </c>
       <c r="F32">
-        <v>0.05283266500743492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0661400945114943</v>
+      </c>
+      <c r="G32">
+        <v>0.003707582494234635</v>
+      </c>
+      <c r="H32">
+        <v>-0.003198973238088129</v>
+      </c>
+      <c r="I32">
+        <v>0.0125440301247813</v>
+      </c>
+      <c r="J32">
+        <v>-0.03830166574402937</v>
+      </c>
+      <c r="K32">
+        <v>-0.1329680100005067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1021435567041812</v>
+        <v>0.1053100457208525</v>
       </c>
       <c r="C33">
-        <v>0.02818619612225915</v>
+        <v>0.04709360322392791</v>
       </c>
       <c r="D33">
-        <v>-0.03865679780809717</v>
+        <v>-0.01094073320066525</v>
       </c>
       <c r="E33">
-        <v>-0.008697102841138039</v>
+        <v>-0.01766002079165806</v>
       </c>
       <c r="F33">
-        <v>-0.01990605012325043</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03325149386259885</v>
+      </c>
+      <c r="G33">
+        <v>-0.01834604958732456</v>
+      </c>
+      <c r="H33">
+        <v>-0.03811013496521096</v>
+      </c>
+      <c r="I33">
+        <v>-0.07076593773610321</v>
+      </c>
+      <c r="J33">
+        <v>-0.01151806275153137</v>
+      </c>
+      <c r="K33">
+        <v>-0.02297777983499509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06427062292407174</v>
+        <v>0.06946832697362094</v>
       </c>
       <c r="C34">
-        <v>0.06143001930607752</v>
+        <v>0.04985480607861965</v>
       </c>
       <c r="D34">
-        <v>-0.02853591557585158</v>
+        <v>-0.02160081222313182</v>
       </c>
       <c r="E34">
-        <v>-0.02381860472329861</v>
+        <v>0.01068380976707087</v>
       </c>
       <c r="F34">
-        <v>0.02856068292988048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03211916245295816</v>
+      </c>
+      <c r="G34">
+        <v>-0.04530575348634719</v>
+      </c>
+      <c r="H34">
+        <v>-0.03331832406099775</v>
+      </c>
+      <c r="I34">
+        <v>-0.06054003891528612</v>
+      </c>
+      <c r="J34">
+        <v>-0.03670113356043255</v>
+      </c>
+      <c r="K34">
+        <v>0.05205144215824872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04076621788930137</v>
+        <v>0.03511335865301685</v>
       </c>
       <c r="C35">
-        <v>0.008077909238737932</v>
+        <v>0.0189707427125602</v>
       </c>
       <c r="D35">
-        <v>-0.01533315160753808</v>
+        <v>-0.01002591948970164</v>
       </c>
       <c r="E35">
-        <v>-0.002308261241714367</v>
+        <v>-0.009193073131750079</v>
       </c>
       <c r="F35">
-        <v>0.007565392504106852</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01293623014615255</v>
+      </c>
+      <c r="G35">
+        <v>0.007358010901765661</v>
+      </c>
+      <c r="H35">
+        <v>-0.02815380877615581</v>
+      </c>
+      <c r="I35">
+        <v>-0.05983859721042997</v>
+      </c>
+      <c r="J35">
+        <v>-0.02546560590388074</v>
+      </c>
+      <c r="K35">
+        <v>-0.009670970414966683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03855814087077498</v>
+        <v>0.03459150991945725</v>
       </c>
       <c r="C36">
-        <v>0.01428955191457659</v>
+        <v>0.01306105686859506</v>
       </c>
       <c r="D36">
-        <v>-0.01779001857475402</v>
+        <v>-0.002428926328146723</v>
       </c>
       <c r="E36">
-        <v>-0.03130364608242609</v>
+        <v>0.0176279942057237</v>
       </c>
       <c r="F36">
-        <v>0.01058810599500727</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03499669625492313</v>
+      </c>
+      <c r="G36">
+        <v>-0.0224061436458523</v>
+      </c>
+      <c r="H36">
+        <v>-0.01944020005028405</v>
+      </c>
+      <c r="I36">
+        <v>-0.06950943747985867</v>
+      </c>
+      <c r="J36">
+        <v>-0.01729816244991587</v>
+      </c>
+      <c r="K36">
+        <v>-0.04304275887124587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06844842234654627</v>
+        <v>0.05016468463088335</v>
       </c>
       <c r="C38">
-        <v>0.01876263594734128</v>
+        <v>0.05054882279262719</v>
       </c>
       <c r="D38">
-        <v>0.01618870991852902</v>
+        <v>0.04359316030129686</v>
       </c>
       <c r="E38">
-        <v>0.01724483036683281</v>
+        <v>0.01249322034110443</v>
       </c>
       <c r="F38">
-        <v>0.05177201649933254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0006311221380639993</v>
+      </c>
+      <c r="G38">
+        <v>-0.002133440532166348</v>
+      </c>
+      <c r="H38">
+        <v>0.001653204032414393</v>
+      </c>
+      <c r="I38">
+        <v>0.08780779371184866</v>
+      </c>
+      <c r="J38">
+        <v>-0.01604065110902193</v>
+      </c>
+      <c r="K38">
+        <v>-0.07584836050718846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09403354194856212</v>
+        <v>0.099010098787659</v>
       </c>
       <c r="C39">
-        <v>0.04587002358400066</v>
+        <v>0.05238998831664314</v>
       </c>
       <c r="D39">
-        <v>-0.03969197760842005</v>
+        <v>-0.02423666969936244</v>
       </c>
       <c r="E39">
-        <v>-0.004938062666220533</v>
+        <v>0.008297639181509135</v>
       </c>
       <c r="F39">
-        <v>0.02306547924081223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04102798851058134</v>
+      </c>
+      <c r="G39">
+        <v>-0.04198541773163662</v>
+      </c>
+      <c r="H39">
+        <v>-0.01100807641761854</v>
+      </c>
+      <c r="I39">
+        <v>-0.06666142577119073</v>
+      </c>
+      <c r="J39">
+        <v>-0.1617514616904606</v>
+      </c>
+      <c r="K39">
+        <v>0.005245368838728354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07266964609442127</v>
+        <v>0.04465794119550676</v>
       </c>
       <c r="C40">
-        <v>0.01255374825950533</v>
+        <v>0.04119165337459964</v>
       </c>
       <c r="D40">
-        <v>-0.02631922891743702</v>
+        <v>0.05111344955342563</v>
       </c>
       <c r="E40">
-        <v>-0.01526529808023968</v>
+        <v>0.0008358554513307974</v>
       </c>
       <c r="F40">
-        <v>0.1000773882664114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.06007115870818613</v>
+      </c>
+      <c r="G40">
+        <v>-0.07794690923562063</v>
+      </c>
+      <c r="H40">
+        <v>0.09399759398055269</v>
+      </c>
+      <c r="I40">
+        <v>-0.07335613992385805</v>
+      </c>
+      <c r="J40">
+        <v>-0.2739616973637934</v>
+      </c>
+      <c r="K40">
+        <v>-0.08826868529396004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06068555328257596</v>
+        <v>0.04734305453904363</v>
       </c>
       <c r="C41">
-        <v>0.02437743199598382</v>
+        <v>0.02951071496358459</v>
       </c>
       <c r="D41">
-        <v>-0.006198367046466619</v>
+        <v>-0.009060789307831598</v>
       </c>
       <c r="E41">
-        <v>0.003375986709721055</v>
+        <v>0.00237784528175453</v>
       </c>
       <c r="F41">
-        <v>0.006290873228866452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.02160334249725629</v>
+      </c>
+      <c r="G41">
+        <v>-0.01817677499380218</v>
+      </c>
+      <c r="H41">
+        <v>-0.03176773579797073</v>
+      </c>
+      <c r="I41">
+        <v>-0.001085349959982433</v>
+      </c>
+      <c r="J41">
+        <v>-0.03619769509157672</v>
+      </c>
+      <c r="K41">
+        <v>-0.03702337067157304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06494486301397116</v>
+        <v>0.06191486462198979</v>
       </c>
       <c r="C43">
-        <v>0.01709354254752557</v>
+        <v>0.03517230606458761</v>
       </c>
       <c r="D43">
-        <v>-0.01663164376474138</v>
+        <v>-0.009790609814632582</v>
       </c>
       <c r="E43">
-        <v>-0.02078123747864913</v>
+        <v>0.02235267157604089</v>
       </c>
       <c r="F43">
-        <v>-0.004911657900596086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01130655688105696</v>
+      </c>
+      <c r="G43">
+        <v>-0.00805919367756564</v>
+      </c>
+      <c r="H43">
+        <v>-0.05737866523288646</v>
+      </c>
+      <c r="I43">
+        <v>-0.005205563551261221</v>
+      </c>
+      <c r="J43">
+        <v>-0.02134603727601577</v>
+      </c>
+      <c r="K43">
+        <v>-0.006548984573211284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09110550872308414</v>
+        <v>0.09452093807169507</v>
       </c>
       <c r="C44">
-        <v>0.05036455750424468</v>
+        <v>0.05265450772219074</v>
       </c>
       <c r="D44">
-        <v>-0.01179953943368866</v>
+        <v>0.01038959450207402</v>
       </c>
       <c r="E44">
-        <v>-0.08584656974852908</v>
+        <v>0.09060040224819249</v>
       </c>
       <c r="F44">
-        <v>0.1093504619677089</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.09585288757994061</v>
+      </c>
+      <c r="G44">
+        <v>-0.07869498052389606</v>
+      </c>
+      <c r="H44">
+        <v>-0.05557113609749264</v>
+      </c>
+      <c r="I44">
+        <v>-0.1209710857363246</v>
+      </c>
+      <c r="J44">
+        <v>-0.1022416510837381</v>
+      </c>
+      <c r="K44">
+        <v>-0.01092538462878421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03312807352893523</v>
+        <v>0.04781306772739115</v>
       </c>
       <c r="C46">
-        <v>0.03231902119846914</v>
+        <v>0.0305579860684102</v>
       </c>
       <c r="D46">
-        <v>-0.01674098135259617</v>
+        <v>-0.01384311286262112</v>
       </c>
       <c r="E46">
-        <v>-0.01784376477387514</v>
+        <v>0.0222396905753958</v>
       </c>
       <c r="F46">
-        <v>0.04764578981973425</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04412986863244498</v>
+      </c>
+      <c r="G46">
+        <v>-0.005441143429447402</v>
+      </c>
+      <c r="H46">
+        <v>-0.02463817009520544</v>
+      </c>
+      <c r="I46">
+        <v>-0.03927098754008348</v>
+      </c>
+      <c r="J46">
+        <v>0.0234198049117977</v>
+      </c>
+      <c r="K46">
+        <v>-0.03776779518217378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03911369142332571</v>
+        <v>0.04735448909237652</v>
       </c>
       <c r="C47">
-        <v>-0.006487662090465315</v>
+        <v>0.009959262854405564</v>
       </c>
       <c r="D47">
-        <v>-0.008987362170949345</v>
+        <v>0.01008263775559512</v>
       </c>
       <c r="E47">
-        <v>-0.01405085307035461</v>
+        <v>-0.002383801401736675</v>
       </c>
       <c r="F47">
-        <v>0.06402321126393824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04033247830478315</v>
+      </c>
+      <c r="G47">
+        <v>0.008371536877123732</v>
+      </c>
+      <c r="H47">
+        <v>-0.02170143222694706</v>
+      </c>
+      <c r="I47">
+        <v>-0.03400453030334668</v>
+      </c>
+      <c r="J47">
+        <v>0.02221290754814948</v>
+      </c>
+      <c r="K47">
+        <v>7.738157949181204e-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05078863290510776</v>
+        <v>0.04469859455330061</v>
       </c>
       <c r="C48">
-        <v>0.02052075337455626</v>
+        <v>0.01487983559397497</v>
       </c>
       <c r="D48">
-        <v>-0.03045098314791353</v>
+        <v>0.005042752239704933</v>
       </c>
       <c r="E48">
-        <v>-0.02072329443694922</v>
+        <v>-0.003856388890641631</v>
       </c>
       <c r="F48">
-        <v>0.02572950752213131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04246954881221436</v>
+      </c>
+      <c r="G48">
+        <v>-0.002539968031914444</v>
+      </c>
+      <c r="H48">
+        <v>0.006556406071357165</v>
+      </c>
+      <c r="I48">
+        <v>-0.05830403389647534</v>
+      </c>
+      <c r="J48">
+        <v>-0.005556829476481703</v>
+      </c>
+      <c r="K48">
+        <v>-0.0534890931378442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1491810617345552</v>
+        <v>0.205176868941767</v>
       </c>
       <c r="C49">
-        <v>0.01486673673983367</v>
+        <v>0.02295402389130113</v>
       </c>
       <c r="D49">
-        <v>-0.08015222802583707</v>
+        <v>-0.1720544986986612</v>
       </c>
       <c r="E49">
-        <v>-0.03167258300607047</v>
+        <v>-0.006094751321121097</v>
       </c>
       <c r="F49">
-        <v>-0.1343035987703956</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.08648443385596027</v>
+      </c>
+      <c r="G49">
+        <v>0.1358289605684397</v>
+      </c>
+      <c r="H49">
+        <v>0.1960413307689964</v>
+      </c>
+      <c r="I49">
+        <v>0.1199431261725486</v>
+      </c>
+      <c r="J49">
+        <v>-0.06025698951984704</v>
+      </c>
+      <c r="K49">
+        <v>0.23254365916554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06696613948671382</v>
+        <v>0.05644521512716193</v>
       </c>
       <c r="C50">
-        <v>0.02486811360755749</v>
+        <v>0.036321451778755</v>
       </c>
       <c r="D50">
-        <v>-0.03600330625934623</v>
+        <v>-0.00985171921170438</v>
       </c>
       <c r="E50">
-        <v>-0.002835369295733216</v>
+        <v>-0.0174697825859801</v>
       </c>
       <c r="F50">
-        <v>0.01206643571499301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03372427913481635</v>
+      </c>
+      <c r="G50">
+        <v>-0.01188899927681423</v>
+      </c>
+      <c r="H50">
+        <v>-0.06120291005917806</v>
+      </c>
+      <c r="I50">
+        <v>-0.03671545602338253</v>
+      </c>
+      <c r="J50">
+        <v>0.02662052415264821</v>
+      </c>
+      <c r="K50">
+        <v>-0.03513717553397265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03909067257003018</v>
+        <v>0.04128665336784416</v>
       </c>
       <c r="C51">
-        <v>-0.001543961713275961</v>
+        <v>0.001448557954216738</v>
       </c>
       <c r="D51">
-        <v>0.01173823284892358</v>
+        <v>0.01048691771608177</v>
       </c>
       <c r="E51">
-        <v>-0.002053454948833636</v>
+        <v>0.02548063429362244</v>
       </c>
       <c r="F51">
-        <v>0.009600017213997456</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02721491010794228</v>
+      </c>
+      <c r="G51">
+        <v>0.01225795523534785</v>
+      </c>
+      <c r="H51">
+        <v>0.01840277122473207</v>
+      </c>
+      <c r="I51">
+        <v>0.01329206629872121</v>
+      </c>
+      <c r="J51">
+        <v>-0.04336129334062466</v>
+      </c>
+      <c r="K51">
+        <v>0.0678441936527755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1527069267514049</v>
+        <v>0.154636817630833</v>
       </c>
       <c r="C53">
-        <v>-0.03204367452492689</v>
+        <v>0.01377888925004892</v>
       </c>
       <c r="D53">
-        <v>-0.07013740801820223</v>
+        <v>-0.06866221219989922</v>
       </c>
       <c r="E53">
-        <v>-0.004185305353016641</v>
+        <v>-0.01553846930420261</v>
       </c>
       <c r="F53">
-        <v>-0.03361973422243699</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01168338944834546</v>
+      </c>
+      <c r="G53">
+        <v>0.02972087952545497</v>
+      </c>
+      <c r="H53">
+        <v>-0.2296259108080859</v>
+      </c>
+      <c r="I53">
+        <v>0.07528381499000195</v>
+      </c>
+      <c r="J53">
+        <v>0.04879398151855605</v>
+      </c>
+      <c r="K53">
+        <v>0.04681817966694567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06552576229214234</v>
+        <v>0.06424864178592808</v>
       </c>
       <c r="C54">
-        <v>0.02114608371299946</v>
+        <v>0.01294556556188993</v>
       </c>
       <c r="D54">
-        <v>-0.008545055821907808</v>
+        <v>0.01356523703000237</v>
       </c>
       <c r="E54">
-        <v>-0.03441920928465563</v>
+        <v>0.02545825674420567</v>
       </c>
       <c r="F54">
-        <v>0.0664804409847732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.07287060288333758</v>
+      </c>
+      <c r="G54">
+        <v>-0.06109484697146812</v>
+      </c>
+      <c r="H54">
+        <v>-0.02098834831324746</v>
+      </c>
+      <c r="I54">
+        <v>-0.1168394547721258</v>
+      </c>
+      <c r="J54">
+        <v>0.002164683032752344</v>
+      </c>
+      <c r="K54">
+        <v>-0.06980705707946699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09456311767425499</v>
+        <v>0.09531781176899919</v>
       </c>
       <c r="C55">
-        <v>-0.002500152315561039</v>
+        <v>0.02540604884319241</v>
       </c>
       <c r="D55">
-        <v>-0.0510883071634055</v>
+        <v>-0.04815185749825904</v>
       </c>
       <c r="E55">
-        <v>-0.02227871178418243</v>
+        <v>0.007643824234763655</v>
       </c>
       <c r="F55">
-        <v>0.01736134773459273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.007877996273016562</v>
+      </c>
+      <c r="G55">
+        <v>-0.02438579362426116</v>
+      </c>
+      <c r="H55">
+        <v>-0.1802136859537089</v>
+      </c>
+      <c r="I55">
+        <v>0.003734995407892664</v>
+      </c>
+      <c r="J55">
+        <v>0.02364818786410737</v>
+      </c>
+      <c r="K55">
+        <v>0.04186729308714131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1532049426329098</v>
+        <v>0.1516072794146451</v>
       </c>
       <c r="C56">
-        <v>-0.02814204659116634</v>
+        <v>0.03280026469171254</v>
       </c>
       <c r="D56">
-        <v>-0.08717774101502729</v>
+        <v>-0.07028100431552774</v>
       </c>
       <c r="E56">
-        <v>-0.04269348240313611</v>
+        <v>0.001521432866651804</v>
       </c>
       <c r="F56">
-        <v>-0.04520406244381225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.008490503135377551</v>
+      </c>
+      <c r="G56">
+        <v>0.01029994327995321</v>
+      </c>
+      <c r="H56">
+        <v>-0.2323332872804645</v>
+      </c>
+      <c r="I56">
+        <v>0.08817499177730427</v>
+      </c>
+      <c r="J56">
+        <v>0.02844502544644814</v>
+      </c>
+      <c r="K56">
+        <v>0.003976159561446617</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2692,1355 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1166056989056882</v>
+        <v>0.0752553003686281</v>
       </c>
       <c r="C58">
-        <v>0.06290987543840261</v>
+        <v>0.04970855590026453</v>
       </c>
       <c r="D58">
-        <v>0.1283002713501543</v>
+        <v>0.1715420893565544</v>
       </c>
       <c r="E58">
-        <v>-0.1074966850566223</v>
+        <v>0.08167200974509943</v>
       </c>
       <c r="F58">
-        <v>0.1970549594385075</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.01132259794031</v>
+      </c>
+      <c r="G58">
+        <v>0.1096005736218899</v>
+      </c>
+      <c r="H58">
+        <v>0.1801369945833795</v>
+      </c>
+      <c r="I58">
+        <v>-0.5205867335514686</v>
+      </c>
+      <c r="J58">
+        <v>-0.1171718740574235</v>
+      </c>
+      <c r="K58">
+        <v>0.1792699293691865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1379839789011473</v>
+        <v>0.1736862964384806</v>
       </c>
       <c r="C59">
-        <v>-0.4410336226513314</v>
+        <v>-0.3532658862003477</v>
       </c>
       <c r="D59">
-        <v>0.0306503700226732</v>
+        <v>0.02948232470865139</v>
       </c>
       <c r="E59">
-        <v>-0.08917695055452016</v>
+        <v>0.03615122159519875</v>
       </c>
       <c r="F59">
-        <v>0.06373281185308792</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02197085352835309</v>
+      </c>
+      <c r="G59">
+        <v>-0.02749634541503614</v>
+      </c>
+      <c r="H59">
+        <v>-0.03896767273255113</v>
+      </c>
+      <c r="I59">
+        <v>0.0562380801547303</v>
+      </c>
+      <c r="J59">
+        <v>-0.05539407194206759</v>
+      </c>
+      <c r="K59">
+        <v>-0.008318791473460024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2220083956105317</v>
+        <v>0.2467291246190675</v>
       </c>
       <c r="C60">
-        <v>-0.01888423664937982</v>
+        <v>0.04060595558107345</v>
       </c>
       <c r="D60">
-        <v>-0.07953644920889791</v>
+        <v>-0.128705738914184</v>
       </c>
       <c r="E60">
-        <v>-0.05071133515238245</v>
+        <v>0.02500810471803815</v>
       </c>
       <c r="F60">
-        <v>-0.02263507609728571</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05691205936601557</v>
+      </c>
+      <c r="G60">
+        <v>0.01238477492262801</v>
+      </c>
+      <c r="H60">
+        <v>0.1077033262033982</v>
+      </c>
+      <c r="I60">
+        <v>0.1062883946088414</v>
+      </c>
+      <c r="J60">
+        <v>0.1062312294671676</v>
+      </c>
+      <c r="K60">
+        <v>0.1609078561185286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.07939255712266115</v>
+        <v>0.08851131973887792</v>
       </c>
       <c r="C61">
-        <v>0.02439656266250398</v>
+        <v>0.036921116649036</v>
       </c>
       <c r="D61">
-        <v>-0.03073951964897565</v>
+        <v>-0.02243882327658448</v>
       </c>
       <c r="E61">
-        <v>-0.007270544100240255</v>
+        <v>0.01617700838946389</v>
       </c>
       <c r="F61">
-        <v>0.006088648996086657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0316530537690073</v>
+      </c>
+      <c r="G61">
+        <v>-0.05233266812942196</v>
+      </c>
+      <c r="H61">
+        <v>-0.06293308135538271</v>
+      </c>
+      <c r="I61">
+        <v>-0.03303088188650637</v>
+      </c>
+      <c r="J61">
+        <v>-0.08631814669229895</v>
+      </c>
+      <c r="K61">
+        <v>-0.00148277809130341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1494443823375997</v>
+        <v>0.1457627176700802</v>
       </c>
       <c r="C62">
-        <v>-0.02068817782228311</v>
+        <v>0.03863635210597569</v>
       </c>
       <c r="D62">
-        <v>-0.04175817882235158</v>
+        <v>-0.04852261952925541</v>
       </c>
       <c r="E62">
-        <v>0.01874572123756686</v>
+        <v>-0.04015273247297295</v>
       </c>
       <c r="F62">
-        <v>-0.06485109592742326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.02976326867017227</v>
+      </c>
+      <c r="G62">
+        <v>-0.01506338934863361</v>
+      </c>
+      <c r="H62">
+        <v>-0.2270377741746937</v>
+      </c>
+      <c r="I62">
+        <v>0.07859927443711417</v>
+      </c>
+      <c r="J62">
+        <v>0.09129875435994465</v>
+      </c>
+      <c r="K62">
+        <v>0.007737044287738659</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06163921970044649</v>
+        <v>0.05408188527095401</v>
       </c>
       <c r="C63">
-        <v>0.02992269385260512</v>
+        <v>0.02315279194400884</v>
       </c>
       <c r="D63">
-        <v>-0.02537056455457981</v>
+        <v>-0.006215854104568356</v>
       </c>
       <c r="E63">
-        <v>-0.01281047612498251</v>
+        <v>-0.009366019060779534</v>
       </c>
       <c r="F63">
-        <v>0.01147179343023086</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03446397298821584</v>
+      </c>
+      <c r="G63">
+        <v>-0.04303812129268783</v>
+      </c>
+      <c r="H63">
+        <v>-0.02132841781396859</v>
+      </c>
+      <c r="I63">
+        <v>-0.05282338624264405</v>
+      </c>
+      <c r="J63">
+        <v>0.01965746776194665</v>
+      </c>
+      <c r="K63">
+        <v>-0.03456828540145584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.09802958347559761</v>
+        <v>0.104765292668511</v>
       </c>
       <c r="C64">
-        <v>-0.003727517496958813</v>
+        <v>0.01625267694960551</v>
       </c>
       <c r="D64">
-        <v>-0.06110711669223733</v>
+        <v>-0.05117252524830063</v>
       </c>
       <c r="E64">
-        <v>-0.02876380516615468</v>
+        <v>0.02192388611080317</v>
       </c>
       <c r="F64">
-        <v>0.04650853817185907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.06916816051427398</v>
+      </c>
+      <c r="G64">
+        <v>-0.04707696024844255</v>
+      </c>
+      <c r="H64">
+        <v>0.01679862234763757</v>
+      </c>
+      <c r="I64">
+        <v>-0.03976146983443424</v>
+      </c>
+      <c r="J64">
+        <v>-0.04963917451295936</v>
+      </c>
+      <c r="K64">
+        <v>-0.02551278383192027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.124643336817659</v>
+        <v>0.1326454251808385</v>
       </c>
       <c r="C65">
-        <v>0.0300030536121229</v>
+        <v>0.01716327679640229</v>
       </c>
       <c r="D65">
-        <v>-0.04569021483928222</v>
+        <v>-0.05580768068164401</v>
       </c>
       <c r="E65">
-        <v>-0.0434474860002692</v>
+        <v>-0.0133658304148272</v>
       </c>
       <c r="F65">
-        <v>0.08307600380173419</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04812768435276817</v>
+      </c>
+      <c r="G65">
+        <v>-0.1042784480187194</v>
+      </c>
+      <c r="H65">
+        <v>0.1705930039723612</v>
+      </c>
+      <c r="I65">
+        <v>-0.2402876028963112</v>
+      </c>
+      <c r="J65">
+        <v>0.624945148537658</v>
+      </c>
+      <c r="K65">
+        <v>0.06879314923592593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1577457683576954</v>
+        <v>0.144982318768991</v>
       </c>
       <c r="C66">
-        <v>0.0809103258405611</v>
+        <v>0.09754160622572186</v>
       </c>
       <c r="D66">
-        <v>-0.05982693656152278</v>
+        <v>-0.03503698128885155</v>
       </c>
       <c r="E66">
-        <v>-0.0113990279947436</v>
+        <v>0.001019399677852392</v>
       </c>
       <c r="F66">
-        <v>-0.02923219722756772</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03543496065282942</v>
+      </c>
+      <c r="G66">
+        <v>-0.08103583164322398</v>
+      </c>
+      <c r="H66">
+        <v>-0.03208653603686649</v>
+      </c>
+      <c r="I66">
+        <v>-0.05922434047441681</v>
+      </c>
+      <c r="J66">
+        <v>-0.2437755409768672</v>
+      </c>
+      <c r="K66">
+        <v>-0.04568987626406281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09885829080922899</v>
+        <v>0.09699129634044376</v>
       </c>
       <c r="C67">
-        <v>0.01943967393181716</v>
+        <v>0.051215992860072</v>
       </c>
       <c r="D67">
-        <v>0.02102442552614156</v>
+        <v>0.01848788027451525</v>
       </c>
       <c r="E67">
-        <v>-0.005161102693582779</v>
+        <v>0.03931710589951881</v>
       </c>
       <c r="F67">
-        <v>0.01247508694849332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02247399663556372</v>
+      </c>
+      <c r="G67">
+        <v>-0.02158212432984581</v>
+      </c>
+      <c r="H67">
+        <v>0.01100524332307059</v>
+      </c>
+      <c r="I67">
+        <v>0.1292690389959676</v>
+      </c>
+      <c r="J67">
+        <v>-0.04199937964990551</v>
+      </c>
+      <c r="K67">
+        <v>-0.04671668619951084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04705520061807205</v>
+        <v>0.08156180356615882</v>
       </c>
       <c r="C68">
-        <v>-0.2566565862373575</v>
+        <v>-0.2783382135639928</v>
       </c>
       <c r="D68">
-        <v>0.02042249048209923</v>
+        <v>0.02997510987038129</v>
       </c>
       <c r="E68">
-        <v>-0.04464364168158216</v>
+        <v>0.01965909981571162</v>
       </c>
       <c r="F68">
-        <v>0.03681693192687929</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03274006909100678</v>
+      </c>
+      <c r="G68">
+        <v>0.01628194158575943</v>
+      </c>
+      <c r="H68">
+        <v>-0.02389302406432102</v>
+      </c>
+      <c r="I68">
+        <v>-0.04233180861898257</v>
+      </c>
+      <c r="J68">
+        <v>0.04135803271116687</v>
+      </c>
+      <c r="K68">
+        <v>-0.01772300878743056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06753627598780641</v>
+        <v>0.05615405787094702</v>
       </c>
       <c r="C69">
-        <v>0.01247140281804351</v>
+        <v>0.01729789096836543</v>
       </c>
       <c r="D69">
-        <v>0.000157958874500668</v>
+        <v>0.01542655001534654</v>
       </c>
       <c r="E69">
-        <v>-0.01641312393150551</v>
+        <v>-0.004745202621740469</v>
       </c>
       <c r="F69">
-        <v>0.01256520287471102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0004811775451505764</v>
+      </c>
+      <c r="G69">
+        <v>-0.01665680425234639</v>
+      </c>
+      <c r="H69">
+        <v>-0.03439319215543314</v>
+      </c>
+      <c r="I69">
+        <v>-0.009303416702282153</v>
+      </c>
+      <c r="J69">
+        <v>-0.00649268676471225</v>
+      </c>
+      <c r="K69">
+        <v>0.001741408869487039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01473199842475147</v>
+        <v>0.03918870165989802</v>
       </c>
       <c r="C70">
-        <v>-0.0162417755031815</v>
+        <v>0.004738625324106949</v>
       </c>
       <c r="D70">
-        <v>0.006271873272000958</v>
+        <v>-0.00842715790778345</v>
       </c>
       <c r="E70">
-        <v>0.01478057355657076</v>
+        <v>0.003838171183610142</v>
       </c>
       <c r="F70">
-        <v>-0.01424581386903766</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.05128142971802902</v>
+      </c>
+      <c r="G70">
+        <v>-0.009491747811102848</v>
+      </c>
+      <c r="H70">
+        <v>0.02924774818481377</v>
+      </c>
+      <c r="I70">
+        <v>0.02899082687461125</v>
+      </c>
+      <c r="J70">
+        <v>-0.0161957901803663</v>
+      </c>
+      <c r="K70">
+        <v>-0.1228978589927245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04428602962875282</v>
+        <v>0.09100202659283441</v>
       </c>
       <c r="C71">
-        <v>-0.2852395879758109</v>
+        <v>-0.2983029610513509</v>
       </c>
       <c r="D71">
-        <v>0.02392855734545105</v>
+        <v>0.01968683911555029</v>
       </c>
       <c r="E71">
-        <v>-0.07781359547429992</v>
+        <v>0.03803563384063388</v>
       </c>
       <c r="F71">
-        <v>0.02938225792861351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03568143197402542</v>
+      </c>
+      <c r="G71">
+        <v>0.004250239222144202</v>
+      </c>
+      <c r="H71">
+        <v>-0.01621634192145785</v>
+      </c>
+      <c r="I71">
+        <v>-0.01932497442246787</v>
+      </c>
+      <c r="J71">
+        <v>0.01092648602941577</v>
+      </c>
+      <c r="K71">
+        <v>-0.003513040985308683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1447651862324295</v>
+        <v>0.1349949507853388</v>
       </c>
       <c r="C72">
-        <v>-0.0432161339750648</v>
+        <v>-0.001703275508990627</v>
       </c>
       <c r="D72">
-        <v>-0.03131425617489712</v>
+        <v>0.01870407584666183</v>
       </c>
       <c r="E72">
-        <v>0.2330612367224541</v>
+        <v>-0.1682050176055007</v>
       </c>
       <c r="F72">
-        <v>0.03928818416840841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0198310451897913</v>
+      </c>
+      <c r="G72">
+        <v>-0.1232104084570231</v>
+      </c>
+      <c r="H72">
+        <v>-0.03118844728541695</v>
+      </c>
+      <c r="I72">
+        <v>0.009383200489471685</v>
+      </c>
+      <c r="J72">
+        <v>0.0964654197209075</v>
+      </c>
+      <c r="K72">
+        <v>0.1261640531850877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2499710308517381</v>
+        <v>0.2448079962017226</v>
       </c>
       <c r="C73">
-        <v>0.05304154203336811</v>
+        <v>0.1020279422844909</v>
       </c>
       <c r="D73">
-        <v>-0.09222562474052093</v>
+        <v>-0.1933797220685877</v>
       </c>
       <c r="E73">
-        <v>-0.0957871214450996</v>
+        <v>0.06414839575795833</v>
       </c>
       <c r="F73">
-        <v>-0.2033707608104781</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2190913242906098</v>
+      </c>
+      <c r="G73">
+        <v>0.2230138038362485</v>
+      </c>
+      <c r="H73">
+        <v>0.2846136216827874</v>
+      </c>
+      <c r="I73">
+        <v>0.1271080212593429</v>
+      </c>
+      <c r="J73">
+        <v>-0.2117540520676459</v>
+      </c>
+      <c r="K73">
+        <v>0.4558432505111867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08701306210361959</v>
+        <v>0.09276477627017748</v>
       </c>
       <c r="C74">
-        <v>-0.01232725854040334</v>
+        <v>0.03308513578516227</v>
       </c>
       <c r="D74">
-        <v>-0.05988947515508386</v>
+        <v>-0.04496739322412523</v>
       </c>
       <c r="E74">
-        <v>-0.003321111986141585</v>
+        <v>-0.01645969004733339</v>
       </c>
       <c r="F74">
-        <v>1.775018643064081e-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01314220192425439</v>
+      </c>
+      <c r="G74">
+        <v>0.0328822372364272</v>
+      </c>
+      <c r="H74">
+        <v>-0.1413929013059438</v>
+      </c>
+      <c r="I74">
+        <v>0.01521571494348796</v>
+      </c>
+      <c r="J74">
+        <v>-0.009251964082546259</v>
+      </c>
+      <c r="K74">
+        <v>0.05381306089395234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1221554668189342</v>
+        <v>0.1049250897908702</v>
       </c>
       <c r="C75">
-        <v>-0.0009775339744268552</v>
+        <v>0.03038945988531933</v>
       </c>
       <c r="D75">
-        <v>-0.003885858493239657</v>
+        <v>0.01202967158162679</v>
       </c>
       <c r="E75">
-        <v>-0.0229228991166584</v>
+        <v>0.00216604038293835</v>
       </c>
       <c r="F75">
-        <v>-0.02928806190643259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.0306819491269389</v>
+      </c>
+      <c r="G75">
+        <v>0.02168911513318088</v>
+      </c>
+      <c r="H75">
+        <v>-0.1209068112310266</v>
+      </c>
+      <c r="I75">
+        <v>0.03623898830477466</v>
+      </c>
+      <c r="J75">
+        <v>0.04022061918579695</v>
+      </c>
+      <c r="K75">
+        <v>0.006769731713385534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.140802097361639</v>
+        <v>0.1265329688172159</v>
       </c>
       <c r="C76">
-        <v>-0.006129841259796206</v>
+        <v>0.04997288110845104</v>
       </c>
       <c r="D76">
-        <v>-0.07200362246834835</v>
+        <v>-0.06423858420338237</v>
       </c>
       <c r="E76">
-        <v>-0.02432067621231423</v>
+        <v>0.004216151755888593</v>
       </c>
       <c r="F76">
-        <v>0.009927334755742343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01274348117983497</v>
+      </c>
+      <c r="G76">
+        <v>0.01825794735323774</v>
+      </c>
+      <c r="H76">
+        <v>-0.2585631712769587</v>
+      </c>
+      <c r="I76">
+        <v>0.06532955101928808</v>
+      </c>
+      <c r="J76">
+        <v>0.04360035786446243</v>
+      </c>
+      <c r="K76">
+        <v>0.0139297337427128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1317401311371698</v>
+        <v>0.09079992709083018</v>
       </c>
       <c r="C77">
-        <v>0.03144567119579043</v>
+        <v>0.02855664697187349</v>
       </c>
       <c r="D77">
-        <v>0.08432039607521041</v>
+        <v>0.14837144754156</v>
       </c>
       <c r="E77">
-        <v>-0.03276057381217496</v>
+        <v>0.1174387469328247</v>
       </c>
       <c r="F77">
-        <v>0.42518181371812</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.05622832958017098</v>
+      </c>
+      <c r="G77">
+        <v>-0.720148447081229</v>
+      </c>
+      <c r="H77">
+        <v>0.2432980040268999</v>
+      </c>
+      <c r="I77">
+        <v>0.4014834061537958</v>
+      </c>
+      <c r="J77">
+        <v>-0.05564570134158641</v>
+      </c>
+      <c r="K77">
+        <v>0.01905761698250166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1288902230282658</v>
+        <v>0.1650406767681911</v>
       </c>
       <c r="C78">
-        <v>0.07463607041250181</v>
+        <v>0.0792291760970755</v>
       </c>
       <c r="D78">
-        <v>-0.04794200510615385</v>
+        <v>0.008656272158728929</v>
       </c>
       <c r="E78">
-        <v>-0.005748769827535604</v>
+        <v>0.06975497844653306</v>
       </c>
       <c r="F78">
-        <v>0.09461343608540858</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1643405413963619</v>
+      </c>
+      <c r="G78">
+        <v>-0.02610557736232352</v>
+      </c>
+      <c r="H78">
+        <v>0.09597625313827822</v>
+      </c>
+      <c r="I78">
+        <v>-0.03543448541343958</v>
+      </c>
+      <c r="J78">
+        <v>0.008932264172049877</v>
+      </c>
+      <c r="K78">
+        <v>0.1145837371123877</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1496637791762181</v>
+        <v>0.1440287350677317</v>
       </c>
       <c r="C79">
-        <v>0.01874215679752356</v>
+        <v>0.04227438726184644</v>
       </c>
       <c r="D79">
-        <v>-0.06247952533212256</v>
+        <v>-0.04497246389412877</v>
       </c>
       <c r="E79">
-        <v>-0.004335751087454104</v>
+        <v>-0.008325763615157371</v>
       </c>
       <c r="F79">
-        <v>-0.0517988638554477</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.006106461462689104</v>
+      </c>
+      <c r="G79">
+        <v>-0.02099972244424364</v>
+      </c>
+      <c r="H79">
+        <v>-0.1881212741637026</v>
+      </c>
+      <c r="I79">
+        <v>0.06356742282612814</v>
+      </c>
+      <c r="J79">
+        <v>0.07362352388635404</v>
+      </c>
+      <c r="K79">
+        <v>0.01661766841292715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.0387656927825408</v>
+        <v>0.04405229660075462</v>
       </c>
       <c r="C80">
-        <v>0.02098987704858101</v>
+        <v>0.009298787884015211</v>
       </c>
       <c r="D80">
-        <v>-0.01405764412057692</v>
+        <v>-0.04791132786504827</v>
       </c>
       <c r="E80">
-        <v>-0.005605017695947862</v>
+        <v>-0.009911596205799194</v>
       </c>
       <c r="F80">
-        <v>-0.0005586088052131336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.03070298893301294</v>
+      </c>
+      <c r="G80">
+        <v>0.001180743322904343</v>
+      </c>
+      <c r="H80">
+        <v>0.03137572795137473</v>
+      </c>
+      <c r="I80">
+        <v>-0.07594974518615107</v>
+      </c>
+      <c r="J80">
+        <v>-0.0353861378652776</v>
+      </c>
+      <c r="K80">
+        <v>-0.01447344171628104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1347420872092752</v>
+        <v>0.1316005360872483</v>
       </c>
       <c r="C81">
-        <v>-0.002668212062992429</v>
+        <v>0.01808663706150673</v>
       </c>
       <c r="D81">
-        <v>-0.04835718688823805</v>
+        <v>-0.03722577386352957</v>
       </c>
       <c r="E81">
-        <v>-0.03306218305047177</v>
+        <v>-0.002106943715754233</v>
       </c>
       <c r="F81">
-        <v>-0.04474903695552164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.004462648196234388</v>
+      </c>
+      <c r="G81">
+        <v>0.01170388334850818</v>
+      </c>
+      <c r="H81">
+        <v>-0.1472181580917396</v>
+      </c>
+      <c r="I81">
+        <v>0.02966580133546102</v>
+      </c>
+      <c r="J81">
+        <v>-0.02240725049282569</v>
+      </c>
+      <c r="K81">
+        <v>-0.01554374342326518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1233015165801536</v>
+        <v>0.1262828886644105</v>
       </c>
       <c r="C82">
-        <v>0.01770687598558852</v>
+        <v>0.02961886018803588</v>
       </c>
       <c r="D82">
-        <v>-0.03254177397759705</v>
+        <v>-0.04273323129794131</v>
       </c>
       <c r="E82">
-        <v>-0.0409384375160777</v>
+        <v>0.002510997151493448</v>
       </c>
       <c r="F82">
-        <v>-0.05423129149636434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01861964170992272</v>
+      </c>
+      <c r="G82">
+        <v>0.02572487803880651</v>
+      </c>
+      <c r="H82">
+        <v>-0.2759837674535559</v>
+      </c>
+      <c r="I82">
+        <v>0.06500796631188371</v>
+      </c>
+      <c r="J82">
+        <v>-0.004121472491407132</v>
+      </c>
+      <c r="K82">
+        <v>-0.02175943527859758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05527114316927455</v>
+        <v>0.07658475078254513</v>
       </c>
       <c r="C83">
-        <v>0.01827466361337563</v>
+        <v>0.03471707983109583</v>
       </c>
       <c r="D83">
-        <v>0.06821264135089809</v>
+        <v>0.02570206871847987</v>
       </c>
       <c r="E83">
-        <v>-0.01993218894496471</v>
+        <v>0.03676980907942874</v>
       </c>
       <c r="F83">
-        <v>-0.08722260434305155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.07839513045638459</v>
+      </c>
+      <c r="G83">
+        <v>0.03129515157714619</v>
+      </c>
+      <c r="H83">
+        <v>0.05069594286191693</v>
+      </c>
+      <c r="I83">
+        <v>-0.08020489004339584</v>
+      </c>
+      <c r="J83">
+        <v>-0.05286995052557187</v>
+      </c>
+      <c r="K83">
+        <v>-0.04212692856104566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05175785160787338</v>
+        <v>0.03421822346314823</v>
       </c>
       <c r="C84">
-        <v>0.01546816930235207</v>
+        <v>0.04526608721844994</v>
       </c>
       <c r="D84">
-        <v>-0.04543849649789671</v>
+        <v>0.004402422168370713</v>
       </c>
       <c r="E84">
-        <v>0.03114963847436029</v>
+        <v>-0.0517812063975911</v>
       </c>
       <c r="F84">
-        <v>-0.02017410710144151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.04755357392269908</v>
+      </c>
+      <c r="G84">
+        <v>0.04115846709709021</v>
+      </c>
+      <c r="H84">
+        <v>-0.02166802500243125</v>
+      </c>
+      <c r="I84">
+        <v>-0.1132726710193081</v>
+      </c>
+      <c r="J84">
+        <v>-0.04423163792886257</v>
+      </c>
+      <c r="K84">
+        <v>-0.106741908933179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1110531193237392</v>
+        <v>0.1194590754562551</v>
       </c>
       <c r="C85">
-        <v>0.03287279383741273</v>
+        <v>0.03634775271742998</v>
       </c>
       <c r="D85">
-        <v>-0.02695583142654175</v>
+        <v>-0.03248768155399443</v>
       </c>
       <c r="E85">
-        <v>-0.0613831479594516</v>
+        <v>0.03569107136756366</v>
       </c>
       <c r="F85">
-        <v>0.008391237111427134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.009180468697537754</v>
+      </c>
+      <c r="G85">
+        <v>-0.01312795535192281</v>
+      </c>
+      <c r="H85">
+        <v>-0.195208312948204</v>
+      </c>
+      <c r="I85">
+        <v>0.03020956442557601</v>
+      </c>
+      <c r="J85">
+        <v>0.06872726191258435</v>
+      </c>
+      <c r="K85">
+        <v>0.02460805279597701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07757518726621916</v>
+        <v>0.07041777612460644</v>
       </c>
       <c r="C86">
-        <v>0.06785039954028572</v>
+        <v>0.03507583892117443</v>
       </c>
       <c r="D86">
-        <v>-0.02380959105695773</v>
+        <v>0.007485163079168745</v>
       </c>
       <c r="E86">
-        <v>-0.00773904522277592</v>
+        <v>0.02169646845397161</v>
       </c>
       <c r="F86">
-        <v>0.02661125585033812</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03431721037929315</v>
+      </c>
+      <c r="G86">
+        <v>0.008030268278501826</v>
+      </c>
+      <c r="H86">
+        <v>0.03049002197357766</v>
+      </c>
+      <c r="I86">
+        <v>0.002191628340020623</v>
+      </c>
+      <c r="J86">
+        <v>0.01530071054741083</v>
+      </c>
+      <c r="K86">
+        <v>-0.03156270560143793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1289912194305494</v>
+        <v>0.1275314578037145</v>
       </c>
       <c r="C87">
-        <v>0.06393482322912013</v>
+        <v>0.07214261901547209</v>
       </c>
       <c r="D87">
-        <v>-0.05606531088937358</v>
+        <v>-0.004902222051330489</v>
       </c>
       <c r="E87">
-        <v>-0.03769025485430673</v>
+        <v>0.01608094910652562</v>
       </c>
       <c r="F87">
-        <v>0.1866612718660441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1016522952290641</v>
+      </c>
+      <c r="G87">
+        <v>-0.1943627670538719</v>
+      </c>
+      <c r="H87">
+        <v>0.09036062946094581</v>
+      </c>
+      <c r="I87">
+        <v>0.04095937046251918</v>
+      </c>
+      <c r="J87">
+        <v>-0.01811289068825735</v>
+      </c>
+      <c r="K87">
+        <v>-0.03742289722537837</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.0578617534268938</v>
+        <v>0.06479264600804439</v>
       </c>
       <c r="C88">
-        <v>0.02274432692433673</v>
+        <v>0.03789127663702337</v>
       </c>
       <c r="D88">
-        <v>-0.02025390604737456</v>
+        <v>-0.03602501800009279</v>
       </c>
       <c r="E88">
-        <v>-0.009278753385166637</v>
+        <v>0.008784614549456981</v>
       </c>
       <c r="F88">
-        <v>0.001438728910165116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.001063091576154205</v>
+      </c>
+      <c r="G88">
+        <v>-0.0130554518032415</v>
+      </c>
+      <c r="H88">
+        <v>-0.01938812332929332</v>
+      </c>
+      <c r="I88">
+        <v>-0.03381074886929031</v>
+      </c>
+      <c r="J88">
+        <v>-0.03646476560825381</v>
+      </c>
+      <c r="K88">
+        <v>-0.01990097461293842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.08255202853639505</v>
+        <v>0.1498334692006185</v>
       </c>
       <c r="C89">
-        <v>-0.3248421723197564</v>
+        <v>-0.3750001597000759</v>
       </c>
       <c r="D89">
-        <v>0.02503156054315144</v>
+        <v>0.008900974710019202</v>
       </c>
       <c r="E89">
-        <v>-0.1122245888533559</v>
+        <v>0.08608313282484256</v>
       </c>
       <c r="F89">
-        <v>0.0487651781220873</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02755149014733379</v>
+      </c>
+      <c r="G89">
+        <v>0.04077581210862682</v>
+      </c>
+      <c r="H89">
+        <v>0.01533061942221914</v>
+      </c>
+      <c r="I89">
+        <v>-0.05364438608256776</v>
+      </c>
+      <c r="J89">
+        <v>-0.08806292448535587</v>
+      </c>
+      <c r="K89">
+        <v>0.01501323844028603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06750149244931758</v>
+        <v>0.104232966125319</v>
       </c>
       <c r="C90">
-        <v>-0.2880473762183388</v>
+        <v>-0.2806473027592359</v>
       </c>
       <c r="D90">
-        <v>0.04417883909903318</v>
+        <v>0.03234820381174997</v>
       </c>
       <c r="E90">
-        <v>-0.05092500602823817</v>
+        <v>0.03406903826999644</v>
       </c>
       <c r="F90">
-        <v>0.06970090892325183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.008508817670356236</v>
+      </c>
+      <c r="G90">
+        <v>-0.03149047120739583</v>
+      </c>
+      <c r="H90">
+        <v>0.03297695242514815</v>
+      </c>
+      <c r="I90">
+        <v>-0.05351877090469835</v>
+      </c>
+      <c r="J90">
+        <v>-0.06489921531952542</v>
+      </c>
+      <c r="K90">
+        <v>0.009592553758716361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1030925142992904</v>
+        <v>0.08823616719985261</v>
       </c>
       <c r="C91">
-        <v>0.01135301039339186</v>
+        <v>0.0379122591997901</v>
       </c>
       <c r="D91">
-        <v>-0.0348662187187171</v>
+        <v>-0.009409767078531995</v>
       </c>
       <c r="E91">
-        <v>-0.01450674312439465</v>
+        <v>-0.002337743606336105</v>
       </c>
       <c r="F91">
-        <v>-0.01067834894328588</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.004221725578957921</v>
+      </c>
+      <c r="G91">
+        <v>0.03266128800826771</v>
+      </c>
+      <c r="H91">
+        <v>-0.08266744844203529</v>
+      </c>
+      <c r="I91">
+        <v>0.02394880317242319</v>
+      </c>
+      <c r="J91">
+        <v>0.01980856566392314</v>
+      </c>
+      <c r="K91">
+        <v>0.01363867566825758</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.05299988263983711</v>
+        <v>0.1064483530522708</v>
       </c>
       <c r="C92">
-        <v>-0.335189071064027</v>
+        <v>-0.337382454630327</v>
       </c>
       <c r="D92">
-        <v>0.004935806603111255</v>
+        <v>0.006583294481032393</v>
       </c>
       <c r="E92">
-        <v>-0.09056357988247292</v>
+        <v>0.0461798515076922</v>
       </c>
       <c r="F92">
-        <v>0.01383622646621799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04133150646468479</v>
+      </c>
+      <c r="G92">
+        <v>0.02389016399097045</v>
+      </c>
+      <c r="H92">
+        <v>-0.02088617240342116</v>
+      </c>
+      <c r="I92">
+        <v>-0.02124329596854394</v>
+      </c>
+      <c r="J92">
+        <v>-0.02830088389491234</v>
+      </c>
+      <c r="K92">
+        <v>-0.0009896714001889127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.05208090328320988</v>
+        <v>0.1082654540413465</v>
       </c>
       <c r="C93">
-        <v>-0.2930833502639215</v>
+        <v>-0.3109872075444027</v>
       </c>
       <c r="D93">
-        <v>0.01747715561968286</v>
+        <v>0.002020203688874314</v>
       </c>
       <c r="E93">
-        <v>-0.05152054136164765</v>
+        <v>0.02069031132040714</v>
       </c>
       <c r="F93">
-        <v>0.03628821497950279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.007463313916011646</v>
+      </c>
+      <c r="G93">
+        <v>0.00126913055215139</v>
+      </c>
+      <c r="H93">
+        <v>0.01455082383024713</v>
+      </c>
+      <c r="I93">
+        <v>-0.001503693513835418</v>
+      </c>
+      <c r="J93">
+        <v>0.004521145029268398</v>
+      </c>
+      <c r="K93">
+        <v>-0.03031467603277383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1274224586134935</v>
+        <v>0.1204650681117595</v>
       </c>
       <c r="C94">
-        <v>0.05711714906774209</v>
+        <v>0.06057639772133246</v>
       </c>
       <c r="D94">
-        <v>-0.03183495921513241</v>
+        <v>-0.008758185693088359</v>
       </c>
       <c r="E94">
-        <v>-0.03325280138700876</v>
+        <v>0.02396113450966583</v>
       </c>
       <c r="F94">
-        <v>-0.02229440659736173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>8.330327530911432e-05</v>
+      </c>
+      <c r="G94">
+        <v>0.06601759165951192</v>
+      </c>
+      <c r="H94">
+        <v>-0.1195614505060312</v>
+      </c>
+      <c r="I94">
+        <v>0.01783378134087441</v>
+      </c>
+      <c r="J94">
+        <v>0.02021774328737352</v>
+      </c>
+      <c r="K94">
+        <v>0.01407464237965241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1223545798626938</v>
+        <v>0.1353564097266</v>
       </c>
       <c r="C95">
-        <v>0.07713369325231327</v>
+        <v>0.06729214720961128</v>
       </c>
       <c r="D95">
-        <v>-0.07112810504760063</v>
+        <v>-0.03843426234533597</v>
       </c>
       <c r="E95">
-        <v>-0.06518340844235733</v>
+        <v>0.02783552188504162</v>
       </c>
       <c r="F95">
-        <v>-0.03238496419006363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.06007217212917512</v>
+      </c>
+      <c r="G95">
+        <v>-0.04088237390337429</v>
+      </c>
+      <c r="H95">
+        <v>0.1419242136610038</v>
+      </c>
+      <c r="I95">
+        <v>-0.06791101650713627</v>
+      </c>
+      <c r="J95">
+        <v>0.02805766702113757</v>
+      </c>
+      <c r="K95">
+        <v>-0.002153558515172795</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2488855640033768</v>
+        <v>0.1856135025050064</v>
       </c>
       <c r="C97">
-        <v>-0.1495618166651707</v>
+        <v>-0.03490011740971651</v>
       </c>
       <c r="D97">
-        <v>-0.02592584917511283</v>
+        <v>0.2765302965462016</v>
       </c>
       <c r="E97">
-        <v>0.890982746346607</v>
+        <v>-0.8966822524140532</v>
       </c>
       <c r="F97">
-        <v>0.004358490259706582</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.0582240000261274</v>
+      </c>
+      <c r="G97">
+        <v>-0.05093730377688651</v>
+      </c>
+      <c r="H97">
+        <v>0.05154788743253134</v>
+      </c>
+      <c r="I97">
+        <v>-0.03252871048012571</v>
+      </c>
+      <c r="J97">
+        <v>-0.07194401194239025</v>
+      </c>
+      <c r="K97">
+        <v>0.05113019949639923</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2896649036862443</v>
+        <v>0.2848355878521131</v>
       </c>
       <c r="C98">
-        <v>0.04560086486102564</v>
+        <v>0.09798847398863489</v>
       </c>
       <c r="D98">
-        <v>0.01316706571028558</v>
+        <v>-0.09616219903756397</v>
       </c>
       <c r="E98">
-        <v>-0.08842815628699945</v>
+        <v>-0.0120291433211709</v>
       </c>
       <c r="F98">
-        <v>-0.5487520657806118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2943711736841006</v>
+      </c>
+      <c r="G98">
+        <v>0.2790122069348836</v>
+      </c>
+      <c r="H98">
+        <v>0.3070186492811015</v>
+      </c>
+      <c r="I98">
+        <v>0.2009261863561122</v>
+      </c>
+      <c r="J98">
+        <v>0.06481980682623663</v>
+      </c>
+      <c r="K98">
+        <v>-0.6377602943530296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2384665518226026</v>
+        <v>0.1503607067937809</v>
       </c>
       <c r="C99">
-        <v>0.09780097242317895</v>
+        <v>0.08363046569170078</v>
       </c>
       <c r="D99">
-        <v>0.9170356585650246</v>
+        <v>0.6728274121639849</v>
       </c>
       <c r="E99">
-        <v>-0.007882609624475415</v>
+        <v>0.2765694123420787</v>
       </c>
       <c r="F99">
-        <v>-0.08882254177841649</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.5554290517649892</v>
+      </c>
+      <c r="G99">
+        <v>-0.0407249563744085</v>
+      </c>
+      <c r="H99">
+        <v>-0.1420815439315047</v>
+      </c>
+      <c r="I99">
+        <v>-0.08092360893277277</v>
+      </c>
+      <c r="J99">
+        <v>0.06874927152069775</v>
+      </c>
+      <c r="K99">
+        <v>0.05351279789655649</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4197,60 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05692416900058764</v>
+        <v>0.05420927647128142</v>
       </c>
       <c r="C101">
-        <v>-0.002065868039260876</v>
+        <v>0.01008409660394625</v>
       </c>
       <c r="D101">
-        <v>-0.02974259128723215</v>
+        <v>-0.02129198470775331</v>
       </c>
       <c r="E101">
-        <v>-0.02496722406104169</v>
+        <v>0.01956753225293514</v>
       </c>
       <c r="F101">
-        <v>0.03209179996213857</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03611615396133738</v>
+      </c>
+      <c r="G101">
+        <v>-0.02309821561355948</v>
+      </c>
+      <c r="H101">
+        <v>-0.06226449786072875</v>
+      </c>
+      <c r="I101">
+        <v>-0.03838926733179427</v>
+      </c>
+      <c r="J101">
+        <v>0.004398653756032321</v>
+      </c>
+      <c r="K101">
+        <v>-0.03352075805219832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4267,25 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
